--- a/Migrants Data PDF/ExcelData2GDPpercapita.xlsx
+++ b/Migrants Data PDF/ExcelData2GDPpercapita.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kp534\Desktop\Data-Science\Migrants Data PDF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C1C5B8-18C8-41D4-A176-BD039C2F2587}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8712" xr2:uid="{47786D94-44A1-403B-8AD0-E4C2B864A718}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20730" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -267,7 +261,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,13 +348,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,18 +360,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,6 +398,615 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.4507755932854924E-3"/>
+          <c:y val="0.12783270213391765"/>
+          <c:w val="0.86427614413107756"/>
+          <c:h val="0.87216729786608238"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. World PPP GDP per capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="25"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>South Korea</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Indonesia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Saudi Arabia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Thailand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. World PPP GDP per capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>South Korea</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Indonesia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Saudi Arabia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Thailand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="134660096"/>
+        <c:axId val="134662784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134660096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134662784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134662784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134660096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>61480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>15587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>540327</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>151532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274492</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,394 +1298,412 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBE1ED-0C9D-4E12-9815-3E90DBDB4BDB}">
-  <dimension ref="B2:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.88671875" customWidth="1"/>
-    <col min="5" max="5" width="45.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="4">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5">
         <v>2.89</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E26" s="1">
         <v>1.05</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B26 E1:E26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B26 D1:D26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>